--- a/INTLINE/data/566/PHSA/MISSI/Value of Production Index_historical.xlsx
+++ b/INTLINE/data/566/PHSA/MISSI/Value of Production Index_historical.xlsx
@@ -3018,49 +3018,52 @@
         <v>72.80256673740089</v>
       </c>
       <c r="JR2">
-        <v>74.0987254876207</v>
+        <v>76.08249647946134</v>
       </c>
       <c r="JS2">
-        <v>49.35388234430614</v>
+        <v>50.26247990707373</v>
       </c>
       <c r="JT2">
-        <v>20.02248674732935</v>
+        <v>20.14297073638818</v>
       </c>
       <c r="JU2">
-        <v>77.20841824577504</v>
+        <v>78.93255070473123</v>
       </c>
       <c r="JV2">
-        <v>81.25038189099347</v>
+        <v>83.26658462519296</v>
       </c>
       <c r="JW2">
-        <v>81.97243465937559</v>
+        <v>83.83571419159598</v>
       </c>
       <c r="JX2">
-        <v>80.91514125760933</v>
+        <v>82.5394965930699</v>
       </c>
       <c r="JY2">
-        <v>80.96253017542364</v>
+        <v>82.6173506418131</v>
       </c>
       <c r="JZ2">
-        <v>82.46728404427331</v>
+        <v>84.28930645717311</v>
       </c>
       <c r="KA2">
-        <v>87.08791562766473</v>
+        <v>89.13466426157429</v>
       </c>
       <c r="KB2">
-        <v>89.54893321987571</v>
+        <v>91.53307562198829</v>
       </c>
       <c r="KC2">
-        <v>85.64439504731867</v>
+        <v>88.69570376081776</v>
       </c>
       <c r="KD2">
-        <v>89.07460626446779</v>
+        <v>90.74251524950941</v>
       </c>
       <c r="KE2">
-        <v>90.26163611381858</v>
+        <v>92.89727818971538</v>
       </c>
       <c r="KF2">
-        <v>91.73723202802243</v>
+        <v>95.7090007398068</v>
+      </c>
+      <c r="KG2">
+        <v>86.5805301250321</v>
       </c>
     </row>
     <row r="3" spans="1:293">
@@ -3899,46 +3902,49 @@
         <v>106.1009413503329</v>
       </c>
       <c r="JS3">
-        <v>100.0481010516618</v>
+        <v>99.98348965291974</v>
       </c>
       <c r="JT3">
-        <v>128.5061835835938</v>
+        <v>128.2991322654103</v>
       </c>
       <c r="JU3">
-        <v>114.0852516684926</v>
+        <v>113.9115605100565</v>
       </c>
       <c r="JV3">
-        <v>109.4862061872529</v>
+        <v>109.3263143506898</v>
       </c>
       <c r="JW3">
-        <v>104.6296003857547</v>
+        <v>104.5425717362204</v>
       </c>
       <c r="JX3">
-        <v>96.43796832433928</v>
+        <v>96.48180452826931</v>
       </c>
       <c r="JY3">
-        <v>98.03607462960474</v>
+        <v>98.25183511333492</v>
       </c>
       <c r="JZ3">
-        <v>105.2470797700419</v>
+        <v>105.2994019412336</v>
       </c>
       <c r="KA3">
-        <v>115.1733169365334</v>
+        <v>115.1320387216508</v>
       </c>
       <c r="KB3">
-        <v>119.8722727634711</v>
+        <v>119.8534986641668</v>
       </c>
       <c r="KC3">
-        <v>120.053936829116</v>
+        <v>120.6058716723785</v>
       </c>
       <c r="KD3">
-        <v>123.7831306294547</v>
+        <v>127.1635381509968</v>
       </c>
       <c r="KE3">
-        <v>128.0474694635342</v>
+        <v>131.2048368226625</v>
       </c>
       <c r="KF3">
-        <v>137.5466636262628</v>
+        <v>140.1924523191072</v>
+      </c>
+      <c r="KG3">
+        <v>132.1970883917489</v>
       </c>
     </row>
     <row r="4" spans="1:293">
@@ -4801,22 +4807,25 @@
         <v>97.31597294363182</v>
       </c>
       <c r="KA4">
-        <v>86.2256511265814</v>
+        <v>86.22565112406657</v>
       </c>
       <c r="KB4">
-        <v>98.65797556172795</v>
+        <v>98.65797555796289</v>
       </c>
       <c r="KC4">
-        <v>108.3862301286432</v>
+        <v>146.4524639961196</v>
       </c>
       <c r="KD4">
-        <v>100.4562403520729</v>
+        <v>116.7561148330164</v>
       </c>
       <c r="KE4">
-        <v>92.0117471051415</v>
+        <v>109.1095375996577</v>
       </c>
       <c r="KF4">
-        <v>106.0968128436583</v>
+        <v>126.0346136207431</v>
+      </c>
+      <c r="KG4">
+        <v>111.470246577283</v>
       </c>
     </row>
     <row r="5" spans="1:293">
@@ -5652,49 +5661,52 @@
         <v>60.4</v>
       </c>
       <c r="JR5">
-        <v>25.25116196585005</v>
+        <v>58.75584540847224</v>
       </c>
       <c r="JS5">
-        <v>24.72388246241772</v>
+        <v>59.30153457707169</v>
       </c>
       <c r="JT5">
-        <v>28.85173128640632</v>
+        <v>65.200118560405</v>
       </c>
       <c r="JU5">
-        <v>28.65362340569566</v>
+        <v>60.30289209146495</v>
       </c>
       <c r="JV5">
-        <v>29.08831929852192</v>
+        <v>66.25947720224238</v>
       </c>
       <c r="JW5">
-        <v>32.10316117809142</v>
+        <v>73.23991190251797</v>
       </c>
       <c r="JX5">
-        <v>35.76419332570966</v>
+        <v>80.58818628452921</v>
       </c>
       <c r="JY5">
-        <v>35.90207932942819</v>
+        <v>81.66492051172749</v>
       </c>
       <c r="JZ5">
-        <v>32.62056110040095</v>
+        <v>71.99319791526</v>
       </c>
       <c r="KA5">
-        <v>33.35527262402979</v>
+        <v>77.13670977602126</v>
       </c>
       <c r="KB5">
-        <v>35.14619314688665</v>
+        <v>78.32734759826305</v>
       </c>
       <c r="KC5">
-        <v>37.76242155848341</v>
+        <v>75.96142060234921</v>
       </c>
       <c r="KD5">
-        <v>29.98218182765639</v>
+        <v>48.28761161556671</v>
       </c>
       <c r="KE5">
-        <v>31.33192523032267</v>
+        <v>62.94824211389502</v>
       </c>
       <c r="KF5">
-        <v>34.31561873819732</v>
+        <v>77.79591442699264</v>
+      </c>
+      <c r="KG5">
+        <v>70.55471746166853</v>
       </c>
     </row>
     <row r="6" spans="1:293">
@@ -6557,22 +6569,25 @@
         <v>71.34705097578716</v>
       </c>
       <c r="KA6">
-        <v>84.81012836261711</v>
+        <v>84.81012827031779</v>
       </c>
       <c r="KB6">
-        <v>72.50417956807001</v>
+        <v>72.5041794757707</v>
       </c>
       <c r="KC6">
-        <v>78.44732258898105</v>
+        <v>78.44732249668174</v>
       </c>
       <c r="KD6">
-        <v>88.67438812033548</v>
+        <v>86.19672002587147</v>
       </c>
       <c r="KE6">
-        <v>92.23408355782774</v>
+        <v>94.6540871781782</v>
       </c>
       <c r="KF6">
-        <v>92.61372765459022</v>
+        <v>92.47796929271406</v>
+      </c>
+      <c r="KG6">
+        <v>85.23702563015489</v>
       </c>
     </row>
     <row r="7" spans="1:293">
@@ -7435,22 +7450,25 @@
         <v>91.45538189697891</v>
       </c>
       <c r="KA7">
-        <v>90.57946057529809</v>
+        <v>90.57946056306253</v>
       </c>
       <c r="KB7">
-        <v>108.429587803275</v>
+        <v>108.4295877783531</v>
       </c>
       <c r="KC7">
-        <v>103.1370901119943</v>
+        <v>103.1370900691099</v>
       </c>
       <c r="KD7">
-        <v>108.5443595001938</v>
+        <v>108.5443594914997</v>
       </c>
       <c r="KE7">
-        <v>93.97585031149792</v>
+        <v>120.1674516172513</v>
       </c>
       <c r="KF7">
-        <v>103.9571682639964</v>
+        <v>125.5402910264476</v>
+      </c>
+      <c r="KG7">
+        <v>94.15094245664559</v>
       </c>
     </row>
     <row r="8" spans="1:293">
@@ -8313,22 +8331,25 @@
         <v>103.597493663204</v>
       </c>
       <c r="KA8">
-        <v>108.5806697726643</v>
+        <v>108.580669710357</v>
       </c>
       <c r="KB8">
-        <v>106.792932891637</v>
+        <v>106.792932801315</v>
       </c>
       <c r="KC8">
-        <v>110.4743775454179</v>
+        <v>108.8708117345299</v>
       </c>
       <c r="KD8">
-        <v>112.1521498886204</v>
+        <v>112.2544379321758</v>
       </c>
       <c r="KE8">
-        <v>116.1026466292184</v>
+        <v>116.2085376968644</v>
       </c>
       <c r="KF8">
-        <v>123.3823566523819</v>
+        <v>122.9608976511611</v>
+      </c>
+      <c r="KG8">
+        <v>118.0090993970748</v>
       </c>
     </row>
     <row r="9" spans="1:293">
@@ -9083,22 +9104,25 @@
         <v>126.4075094721646</v>
       </c>
       <c r="KA9">
-        <v>130.2460712310613</v>
+        <v>130.246070843347</v>
       </c>
       <c r="KB9">
-        <v>136.1998750464257</v>
+        <v>136.1998746376271</v>
       </c>
       <c r="KC9">
-        <v>127.6273705295763</v>
+        <v>127.6273698734302</v>
       </c>
       <c r="KD9">
-        <v>104.0216001265179</v>
+        <v>103.9870005019966</v>
       </c>
       <c r="KE9">
-        <v>104.7020236753387</v>
+        <v>104.6616002701278</v>
       </c>
       <c r="KF9">
-        <v>105.3911842520184</v>
+        <v>104.3538751022635</v>
+      </c>
+      <c r="KG9">
+        <v>93.62657169412897</v>
       </c>
     </row>
     <row r="10" spans="1:293">
@@ -9976,7 +10000,10 @@
         <v>61.0182220320407</v>
       </c>
       <c r="KF10">
-        <v>51.58921785011659</v>
+        <v>53.2369120757085</v>
+      </c>
+      <c r="KG10">
+        <v>47.70126509964105</v>
       </c>
     </row>
     <row r="11" spans="1:293">
@@ -10551,22 +10578,25 @@
         <v>80.20669104922582</v>
       </c>
       <c r="KA11">
-        <v>100.9691848873374</v>
+        <v>100.9194543140684</v>
       </c>
       <c r="KB11">
-        <v>108.9564761057489</v>
+        <v>108.625593715771</v>
       </c>
       <c r="KC11">
-        <v>89.57476785739907</v>
+        <v>89.4742242036444</v>
       </c>
       <c r="KD11">
-        <v>122.166426279126</v>
+        <v>121.3933365581477</v>
       </c>
       <c r="KE11">
-        <v>115.4705233179118</v>
+        <v>116.2440380533338</v>
       </c>
       <c r="KF11">
-        <v>116.2378959195489</v>
+        <v>128.8881941718552</v>
+      </c>
+      <c r="KG11">
+        <v>126.897815658103</v>
       </c>
     </row>
     <row r="12" spans="1:293">
@@ -11177,22 +11207,25 @@
         <v>97.77679004673374</v>
       </c>
       <c r="KA12">
-        <v>101.4214946215069</v>
+        <v>101.421494509346</v>
       </c>
       <c r="KB12">
-        <v>101.0126372600292</v>
+        <v>101.0126371480816</v>
       </c>
       <c r="KC12">
-        <v>93.50938578632092</v>
+        <v>93.50938567978865</v>
       </c>
       <c r="KD12">
-        <v>97.34090933838257</v>
+        <v>101.7077104644431</v>
       </c>
       <c r="KE12">
-        <v>99.67284460411473</v>
+        <v>103.5779071529939</v>
       </c>
       <c r="KF12">
-        <v>108.9434293422463</v>
+        <v>116.302533547525</v>
+      </c>
+      <c r="KG12">
+        <v>101.0783655184973</v>
       </c>
     </row>
     <row r="13" spans="1:293">
@@ -12055,22 +12088,25 @@
         <v>115.3322718585056</v>
       </c>
       <c r="KA13">
-        <v>114.6664330796214</v>
+        <v>114.6664330743976</v>
       </c>
       <c r="KB13">
-        <v>125.2519678045239</v>
+        <v>125.2519678005231</v>
       </c>
       <c r="KC13">
-        <v>109.729493649996</v>
+        <v>109.7162314119256</v>
       </c>
       <c r="KD13">
-        <v>101.0004364127059</v>
+        <v>101.0891464169806</v>
       </c>
       <c r="KE13">
-        <v>119.2991270684325</v>
+        <v>120.1289984327527</v>
       </c>
       <c r="KF13">
-        <v>113.3115658282833</v>
+        <v>112.976837421936</v>
+      </c>
+      <c r="KG13">
+        <v>102.0398842582727</v>
       </c>
     </row>
     <row r="14" spans="1:293">
@@ -12933,22 +12969,25 @@
         <v>96.87602800824357</v>
       </c>
       <c r="KA14">
-        <v>92.0006705008901</v>
+        <v>91.92049684854636</v>
       </c>
       <c r="KB14">
-        <v>94.06572751305526</v>
+        <v>94.02297829077548</v>
       </c>
       <c r="KC14">
-        <v>91.4399147472635</v>
+        <v>95.24453759593501</v>
       </c>
       <c r="KD14">
-        <v>85.70134246064886</v>
+        <v>82.57974112637977</v>
       </c>
       <c r="KE14">
-        <v>89.6411861587513</v>
+        <v>85.62210683171806</v>
       </c>
       <c r="KF14">
-        <v>95.93327232658922</v>
+        <v>92.61602403837699</v>
+      </c>
+      <c r="KG14">
+        <v>87.1429636102751</v>
       </c>
     </row>
     <row r="15" spans="1:293">
@@ -13703,22 +13742,25 @@
         <v>160.9544879057345</v>
       </c>
       <c r="KA15">
-        <v>146.2895809192276</v>
+        <v>146.2895808403588</v>
       </c>
       <c r="KB15">
-        <v>143.2199859985808</v>
+        <v>143.2199859503662</v>
       </c>
       <c r="KC15">
-        <v>123.1807810260036</v>
+        <v>123.180780967343</v>
       </c>
       <c r="KD15">
-        <v>155.4892388222293</v>
+        <v>164.6716759040204</v>
       </c>
       <c r="KE15">
-        <v>165.1376584608765</v>
+        <v>169.4495585304295</v>
       </c>
       <c r="KF15">
-        <v>156.6892428489426</v>
+        <v>196.7150725350574</v>
+      </c>
+      <c r="KG15">
+        <v>179.4899771791636</v>
       </c>
     </row>
     <row r="16" spans="1:293">
@@ -14581,25 +14623,28 @@
         <v>115.2436216091178</v>
       </c>
       <c r="KA16">
-        <v>116.1248309524074</v>
+        <v>116.1248307904656</v>
       </c>
       <c r="KB16">
-        <v>111.2052441323739</v>
+        <v>111.2052439253413</v>
       </c>
       <c r="KC16">
-        <v>110.0312069958627</v>
+        <v>110.0312068248561</v>
       </c>
       <c r="KD16">
-        <v>59.45894797155399</v>
+        <v>57.92577597583771</v>
       </c>
       <c r="KE16">
-        <v>65.11850952691285</v>
+        <v>67.3524659524212</v>
       </c>
       <c r="KF16">
-        <v>71.46587861962075</v>
+        <v>78.14348106393631</v>
+      </c>
+      <c r="KG16">
+        <v>67.20587525869149</v>
       </c>
     </row>
-    <row r="17" spans="1:292">
+    <row r="17" spans="1:293">
       <c r="A17" s="1" t="s">
         <v>307</v>
       </c>
@@ -15360,16 +15405,19 @@
         <v>92.93289657331458</v>
       </c>
       <c r="KD17">
-        <v>119.9882601890134</v>
+        <v>119.128517482735</v>
       </c>
       <c r="KE17">
-        <v>117.5113272006524</v>
+        <v>119.1871962096745</v>
       </c>
       <c r="KF17">
-        <v>128.1580994372474</v>
+        <v>132.1873645530985</v>
+      </c>
+      <c r="KG17">
+        <v>119.6462541608768</v>
       </c>
     </row>
-    <row r="18" spans="1:292">
+    <row r="18" spans="1:293">
       <c r="A18" s="1" t="s">
         <v>308</v>
       </c>
@@ -16229,25 +16277,28 @@
         <v>70.25194761092496</v>
       </c>
       <c r="KA18">
-        <v>70.74566990462144</v>
+        <v>70.74566989461043</v>
       </c>
       <c r="KB18">
-        <v>73.64043950901696</v>
+        <v>73.64043949684537</v>
       </c>
       <c r="KC18">
-        <v>74.55696705169316</v>
+        <v>74.55696703280896</v>
       </c>
       <c r="KD18">
-        <v>73.25721043509419</v>
+        <v>68.62532474314922</v>
       </c>
       <c r="KE18">
-        <v>74.73593973297754</v>
+        <v>69.47969164759841</v>
       </c>
       <c r="KF18">
-        <v>75.98824985966891</v>
+        <v>70.78847178086677</v>
+      </c>
+      <c r="KG18">
+        <v>58.74804131135421</v>
       </c>
     </row>
-    <row r="19" spans="1:292">
+    <row r="19" spans="1:293">
       <c r="A19" s="1" t="s">
         <v>309</v>
       </c>
@@ -17107,22 +17158,25 @@
         <v>99.34818342790096</v>
       </c>
       <c r="KA19">
-        <v>91.92253738338684</v>
+        <v>91.92253727106237</v>
       </c>
       <c r="KB19">
-        <v>94.13200613662232</v>
+        <v>94.13200601863633</v>
       </c>
       <c r="KC19">
-        <v>78.9348532683784</v>
+        <v>78.93485308254253</v>
       </c>
       <c r="KD19">
-        <v>85.24701117685944</v>
+        <v>92.47793511867914</v>
       </c>
       <c r="KE19">
-        <v>94.57347975287794</v>
+        <v>93.80012202398846</v>
       </c>
       <c r="KF19">
-        <v>96.9239614526621</v>
+        <v>91.36976362002781</v>
+      </c>
+      <c r="KG19">
+        <v>84.47477858520308</v>
       </c>
     </row>
   </sheetData>
